--- a/excel/Test.xlsx
+++ b/excel/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\openSource\java\excelExport\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972B9B0-4C86-44FA-8DDA-826473F16E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DC3347-7FE7-452A-B6AD-27FAC06F8CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5052" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -89,6 +89,89 @@
   <si>
     <t>11234567</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,10000,30,54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000,10000,30,55</t>
+  </si>
+  <si>
+    <t>100000,10000,30,56</t>
+  </si>
+  <si>
+    <t>100000,10000,30,57</t>
+  </si>
+  <si>
+    <t>100000,10000,30,58</t>
+  </si>
+  <si>
+    <t>100000,10000,30,59</t>
+  </si>
+  <si>
+    <t>100000,10000,30,60</t>
+  </si>
+  <si>
+    <t>100000,10000,30,61</t>
+  </si>
+  <si>
+    <t>100000,10000,30,62</t>
+  </si>
+  <si>
+    <t>100000,10000,30,63</t>
+  </si>
+  <si>
+    <t>names</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack1,sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack2,jk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack3,lo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack4,io</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack5,io.pp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack6,fgsd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jack7,fgsd</t>
+  </si>
+  <si>
+    <t>jack8,fgsd</t>
+  </si>
+  <si>
+    <t>jack9,fgsd</t>
+  </si>
+  <si>
+    <t>jack10,fgsd</t>
   </si>
 </sst>
 </file>
@@ -418,19 +501,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,8 +524,14 @@
       <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -451,8 +541,14 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -462,8 +558,14 @@
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -473,8 +575,14 @@
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -484,8 +592,14 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -495,8 +609,14 @@
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -506,8 +626,14 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -517,8 +643,14 @@
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -528,8 +660,14 @@
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -539,8 +677,14 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -550,8 +694,14 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -561,8 +711,14 @@
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -571,6 +727,12 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
